--- a/IB/labs/spectrum_analysis/I1-SpectrumAnalysis.xlsx
+++ b/IB/labs/spectrum_analysis/I1-SpectrumAnalysis.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MEng-CW\IB\labs\spectrum_analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228BFE4A-C737-41E0-AAC6-8450AFD0E3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -76,15 +98,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -95,37 +118,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -315,35 +344,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
-    <col customWidth="1" min="3" max="3" width="20.63"/>
-    <col customWidth="1" min="4" max="4" width="17.0"/>
-    <col customWidth="1" min="5" max="5" width="14.25"/>
-    <col customWidth="1" min="6" max="6" width="14.38"/>
-    <col customWidth="1" min="7" max="7" width="13.5"/>
-    <col customWidth="1" min="8" max="8" width="12.63"/>
-    <col customWidth="1" min="9" max="9" width="13.63"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -351,7 +385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.998</v>
       </c>
@@ -359,7 +393,7 @@
         <v>546.4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.992</v>
       </c>
@@ -367,15 +401,15 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4.986</v>
+        <v>4.9859999999999998</v>
       </c>
       <c r="B5" s="1">
         <v>22.28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6.98</v>
       </c>
@@ -383,20 +417,20 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>8.987</v>
+        <v>8.9870000000000001</v>
       </c>
       <c r="B7" s="1">
-        <v>4.895</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>4.8949999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -404,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.998</v>
       </c>
@@ -412,23 +446,23 @@
         <v>846.1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>2.998</v>
+        <v>2.9980000000000002</v>
       </c>
       <c r="B12" s="1">
-        <v>258.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>4.995</v>
+        <v>4.9950000000000001</v>
       </c>
       <c r="B13" s="1">
         <v>159.6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>6.992</v>
       </c>
@@ -436,25 +470,25 @@
         <v>98.89</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>8.991</v>
+        <v>8.9909999999999997</v>
       </c>
       <c r="B15" s="1">
-        <v>73.18</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>73.180000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -462,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -494,9 +528,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>2.611</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="B22" s="1">
         <v>423.5</v>
@@ -511,24 +545,24 @@
         <v>6.97</v>
       </c>
       <c r="G22" s="1">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="H22" s="1">
-        <v>8.964</v>
+        <v>8.9640000000000004</v>
       </c>
       <c r="I22" s="1">
         <v>332.7</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <f>(I22+G22)/2</f>
         <v>331.85</v>
       </c>
-      <c r="L22" s="2" t="str">
+      <c r="L22" s="1" t="e">
         <f>2*K22/(D22*1000)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
@@ -539,10 +573,10 @@
         <v>519.5</v>
       </c>
       <c r="I23" s="1">
-        <v>512.0</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>